--- a/state/state_2010_2011.xlsx
+++ b/state/state_2010_2011.xlsx
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.02</v>
+        <v>-0.013</v>
       </c>
       <c r="C2">
-        <v>0.734</v>
+        <v>0.785</v>
       </c>
       <c r="D2">
-        <v>0.922</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -588,13 +588,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>0.034</v>
       </c>
       <c r="C3">
-        <v>2.044</v>
+        <v>1.308</v>
       </c>
       <c r="D3">
-        <v>1.026</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -605,10 +605,10 @@
         <v>0.007</v>
       </c>
       <c r="C4">
-        <v>1.023</v>
+        <v>1.002</v>
       </c>
       <c r="D4">
-        <v>0.945</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -616,13 +616,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="C5">
-        <v>0.864</v>
+        <v>0.888</v>
       </c>
       <c r="D5">
-        <v>0.936</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -630,13 +630,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="C6">
-        <v>1.188</v>
+        <v>1.235</v>
       </c>
       <c r="D6">
-        <v>0.934</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -647,10 +647,10 @@
         <v>0.011</v>
       </c>
       <c r="C7">
-        <v>1.068</v>
+        <v>1.056</v>
       </c>
       <c r="D7">
-        <v>0.941</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -658,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.009</v>
+        <v>0.028</v>
       </c>
       <c r="C8">
-        <v>1.018</v>
+        <v>1.292</v>
       </c>
       <c r="D8">
-        <v>0.918</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.039</v>
+        <v>0.029</v>
       </c>
       <c r="C9">
-        <v>1.475</v>
+        <v>1.286</v>
       </c>
       <c r="D9">
-        <v>0.945</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="C10">
-        <v>1.201</v>
+        <v>1.221</v>
       </c>
       <c r="D10">
-        <v>0.924</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="C11">
-        <v>0.835</v>
+        <v>0.858</v>
       </c>
       <c r="D11">
-        <v>0.948</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.003</v>
+        <v>0.009</v>
       </c>
       <c r="C12">
-        <v>0.894</v>
+        <v>1.026</v>
       </c>
       <c r="D12">
-        <v>0.925</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="C13">
-        <v>1.276</v>
+        <v>1.257</v>
       </c>
       <c r="D13">
-        <v>0.928</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.011</v>
+        <v>0.026</v>
       </c>
       <c r="C14">
-        <v>1.056</v>
+        <v>1.215</v>
       </c>
       <c r="D14">
-        <v>0.931</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -756,13 +756,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.021</v>
+        <v>0.005</v>
       </c>
       <c r="C15">
-        <v>0.707</v>
+        <v>0.95</v>
       </c>
       <c r="D15">
-        <v>0.899</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -773,10 +773,10 @@
         <v>0.007</v>
       </c>
       <c r="C16">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="D16">
-        <v>0.922</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -784,13 +784,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.011</v>
+        <v>0.005</v>
       </c>
       <c r="C17">
-        <v>0.807</v>
+        <v>0.963</v>
       </c>
       <c r="D17">
-        <v>0.914</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="C18">
-        <v>1.064</v>
+        <v>1.039</v>
       </c>
       <c r="D18">
-        <v>0.917</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -812,13 +812,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="C19">
-        <v>0.936</v>
+        <v>0.868</v>
       </c>
       <c r="D19">
-        <v>0.915</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -826,13 +826,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="C20">
-        <v>0.843</v>
+        <v>0.841</v>
       </c>
       <c r="D20">
-        <v>0.934</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -840,13 +840,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
       <c r="C21">
-        <v>0.976</v>
+        <v>1.076</v>
       </c>
       <c r="D21">
-        <v>0.912</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -854,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.004</v>
+        <v>0.02</v>
       </c>
       <c r="C22">
-        <v>0.959</v>
+        <v>1.194</v>
       </c>
       <c r="D22">
-        <v>0.916</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -868,13 +868,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.021</v>
+        <v>0.03</v>
       </c>
       <c r="C23">
-        <v>1.188</v>
+        <v>1.327</v>
       </c>
       <c r="D23">
-        <v>0.934</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -882,13 +882,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="C24">
-        <v>0.97</v>
+        <v>1.009</v>
       </c>
       <c r="D24">
-        <v>0.927</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -896,13 +896,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="C25">
-        <v>1.248</v>
+        <v>1.23</v>
       </c>
       <c r="D25">
-        <v>0.928</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -910,13 +910,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="C26">
-        <v>0.895</v>
+        <v>0.902</v>
       </c>
       <c r="D26">
-        <v>0.926</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -924,13 +924,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.009</v>
+        <v>0.008</v>
       </c>
       <c r="C27">
-        <v>0.833</v>
+        <v>1.012</v>
       </c>
       <c r="D27">
-        <v>0.923</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -938,13 +938,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.01</v>
+        <v>0.004</v>
       </c>
       <c r="C28">
-        <v>0.836</v>
+        <v>0.961</v>
       </c>
       <c r="D28">
-        <v>0.937</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -952,13 +952,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="C29">
-        <v>0.917</v>
+        <v>0.949</v>
       </c>
       <c r="D29">
-        <v>0.928</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -969,10 +969,10 @@
         <v>0.003</v>
       </c>
       <c r="C30">
-        <v>0.981</v>
+        <v>0.968</v>
       </c>
       <c r="D30">
-        <v>0.948</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -980,13 +980,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.027</v>
+        <v>0.009</v>
       </c>
       <c r="C31">
-        <v>0.701</v>
+        <v>1.041</v>
       </c>
       <c r="D31">
-        <v>0.954</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.012</v>
+        <v>0.029</v>
       </c>
       <c r="C32">
-        <v>0.795</v>
+        <v>1.292</v>
       </c>
       <c r="D32">
-        <v>0.912</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="C33">
-        <v>1.176</v>
+        <v>1.087</v>
       </c>
       <c r="D33">
-        <v>0.969</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="C34">
-        <v>1.011</v>
+        <v>1.196</v>
       </c>
       <c r="D34">
-        <v>0.901</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="C35">
-        <v>1.107</v>
+        <v>1.154</v>
       </c>
       <c r="D35">
-        <v>0.913</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.014</v>
+        <v>-0.022</v>
       </c>
       <c r="C36">
-        <v>0.805</v>
+        <v>0.681</v>
       </c>
       <c r="D36">
-        <v>0.945</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
       <c r="C37">
-        <v>0.987</v>
+        <v>1.124</v>
       </c>
       <c r="D37">
-        <v>0.912</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.015</v>
+        <v>-0.011</v>
       </c>
       <c r="C38">
-        <v>0.786</v>
+        <v>0.802</v>
       </c>
       <c r="D38">
-        <v>0.933</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.016</v>
+        <v>0.032</v>
       </c>
       <c r="C39">
-        <v>1.096</v>
+        <v>1.34</v>
       </c>
       <c r="D39">
-        <v>0.914</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.007</v>
+        <v>0.011</v>
       </c>
       <c r="C40">
-        <v>0.846</v>
+        <v>1.047</v>
       </c>
       <c r="D40">
-        <v>0.916</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="C41">
-        <v>1.13</v>
+        <v>1.174</v>
       </c>
       <c r="D41">
-        <v>0.931</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="C42">
-        <v>1.041</v>
+        <v>1.071</v>
       </c>
       <c r="D42">
-        <v>0.929</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1151,10 +1151,10 @@
         <v>-0.022</v>
       </c>
       <c r="C43">
-        <v>0.74</v>
+        <v>0.712</v>
       </c>
       <c r="D43">
-        <v>0.952</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.016</v>
+        <v>0.001</v>
       </c>
       <c r="C44">
-        <v>0.791</v>
+        <v>0.947</v>
       </c>
       <c r="D44">
-        <v>0.949</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>-0.019</v>
+        <v>-0.003</v>
       </c>
       <c r="C45">
-        <v>0.762</v>
+        <v>0.884</v>
       </c>
       <c r="D45">
-        <v>0.948</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="C46">
-        <v>1.203</v>
+        <v>1.174</v>
       </c>
       <c r="D46">
-        <v>0.936</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.004</v>
+        <v>0.02</v>
       </c>
       <c r="C47">
-        <v>0.878</v>
+        <v>1.143</v>
       </c>
       <c r="D47">
-        <v>0.919</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="C48">
-        <v>0.858</v>
+        <v>0.976</v>
       </c>
       <c r="D48">
-        <v>0.919</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="C49">
-        <v>1.032</v>
+        <v>1.089</v>
       </c>
       <c r="D49">
-        <v>0.953</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="C50">
-        <v>1.008</v>
+        <v>0.942</v>
       </c>
       <c r="D50">
-        <v>0.93</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.006</v>
+        <v>0.023</v>
       </c>
       <c r="C51">
-        <v>0.974</v>
+        <v>1.191</v>
       </c>
       <c r="D51">
-        <v>0.91</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="C52">
-        <v>0.857</v>
+        <v>0.762</v>
       </c>
       <c r="D52">
-        <v>0.973</v>
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>
@@ -1315,13 +1315,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="C2">
-        <v>0.802</v>
+        <v>0.764</v>
       </c>
       <c r="D2">
-        <v>0.93</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.024</v>
+        <v>-0.01</v>
       </c>
       <c r="C3">
-        <v>1.348</v>
+        <v>0.775</v>
       </c>
       <c r="D3">
-        <v>1.023</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="C4">
-        <v>0.993</v>
+        <v>0.867</v>
       </c>
       <c r="D4">
-        <v>0.949</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>-0.005</v>
       </c>
       <c r="C5">
-        <v>0.94</v>
+        <v>0.878</v>
       </c>
       <c r="D5">
-        <v>0.94</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.017</v>
+        <v>-0.004</v>
       </c>
       <c r="C6">
-        <v>1.133</v>
+        <v>0.882</v>
       </c>
       <c r="D6">
-        <v>0.933</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="C7">
-        <v>0.96</v>
+        <v>0.817</v>
       </c>
       <c r="D7">
-        <v>0.949</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.004</v>
+        <v>-0.009</v>
       </c>
       <c r="C8">
-        <v>0.968</v>
+        <v>0.833</v>
       </c>
       <c r="D8">
-        <v>0.924</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="C9">
-        <v>1.112</v>
+        <v>0.858</v>
       </c>
       <c r="D9">
-        <v>0.948</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="C10">
-        <v>1.02</v>
+        <v>0.884</v>
       </c>
       <c r="D10">
-        <v>0.92</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.005</v>
+        <v>-0.015</v>
       </c>
       <c r="C11">
-        <v>0.898</v>
+        <v>0.764</v>
       </c>
       <c r="D11">
-        <v>0.951</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.002</v>
+        <v>-0.009</v>
       </c>
       <c r="C12">
-        <v>0.899</v>
+        <v>0.825</v>
       </c>
       <c r="D12">
-        <v>0.92</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="C13">
-        <v>1.03</v>
+        <v>0.899</v>
       </c>
       <c r="D13">
-        <v>0.93</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="C14">
-        <v>0.977</v>
+        <v>0.788</v>
       </c>
       <c r="D14">
-        <v>0.933</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="C15">
-        <v>0.78</v>
+        <v>0.747</v>
       </c>
       <c r="D15">
-        <v>0.905</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="C16">
-        <v>0.886</v>
+        <v>0.809</v>
       </c>
       <c r="D16">
-        <v>0.927</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.006</v>
+        <v>-0.012</v>
       </c>
       <c r="C17">
-        <v>0.853</v>
+        <v>0.788</v>
       </c>
       <c r="D17">
-        <v>0.913</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.001</v>
+        <v>-0.013</v>
       </c>
       <c r="C18">
-        <v>0.911</v>
+        <v>0.782</v>
       </c>
       <c r="D18">
-        <v>0.921</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.005</v>
+        <v>-0.013</v>
       </c>
       <c r="C19">
-        <v>0.863</v>
+        <v>0.782</v>
       </c>
       <c r="D19">
-        <v>0.914</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.005</v>
+        <v>-0.02</v>
       </c>
       <c r="C20">
-        <v>0.884</v>
+        <v>0.721</v>
       </c>
       <c r="D20">
-        <v>0.936</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="C21">
-        <v>0.998</v>
+        <v>0.944</v>
       </c>
       <c r="D21">
-        <v>0.922</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.006</v>
+        <v>-0.006</v>
       </c>
       <c r="C22">
-        <v>0.986</v>
+        <v>0.876</v>
       </c>
       <c r="D22">
-        <v>0.921</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="C23">
-        <v>0.969</v>
+        <v>0.848</v>
       </c>
       <c r="D23">
-        <v>0.936</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.003</v>
+        <v>-0.009</v>
       </c>
       <c r="C24">
-        <v>0.903</v>
+        <v>0.832</v>
       </c>
       <c r="D24">
-        <v>0.934</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="C25">
-        <v>1.038</v>
+        <v>0.855</v>
       </c>
       <c r="D25">
-        <v>0.926</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.003</v>
+        <v>-0.014</v>
       </c>
       <c r="C26">
-        <v>0.897</v>
+        <v>0.768</v>
       </c>
       <c r="D26">
-        <v>0.928</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="C27">
-        <v>0.889</v>
+        <v>0.811</v>
       </c>
       <c r="D27">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="C28">
-        <v>0.913</v>
+        <v>0.786</v>
       </c>
       <c r="D28">
-        <v>0.934</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="C29">
-        <v>0.916</v>
+        <v>0.798</v>
       </c>
       <c r="D29">
-        <v>0.926</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.003</v>
+        <v>-0.012</v>
       </c>
       <c r="C30">
-        <v>0.92</v>
+        <v>0.811</v>
       </c>
       <c r="D30">
-        <v>0.952</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="C31">
-        <v>0.902</v>
+        <v>0.875</v>
       </c>
       <c r="D31">
-        <v>0.955</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.012</v>
+        <v>-0.001</v>
       </c>
       <c r="C32">
-        <v>1.049</v>
+        <v>0.911</v>
       </c>
       <c r="D32">
-        <v>0.915</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.014</v>
+        <v>-0.009</v>
       </c>
       <c r="C33">
-        <v>1.137</v>
+        <v>0.845</v>
       </c>
       <c r="D33">
-        <v>0.969</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.009</v>
+        <v>-0.014</v>
       </c>
       <c r="C34">
-        <v>1.006</v>
+        <v>0.758</v>
       </c>
       <c r="D34">
-        <v>0.907</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="C35">
-        <v>0.932</v>
+        <v>0.858</v>
       </c>
       <c r="D35">
-        <v>0.911</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.005</v>
+        <v>-0.027</v>
       </c>
       <c r="C36">
-        <v>0.896</v>
+        <v>0.646</v>
       </c>
       <c r="D36">
-        <v>0.949</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="C37">
-        <v>0.925</v>
+        <v>0.845</v>
       </c>
       <c r="D37">
-        <v>0.915</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.011</v>
+        <v>-0.021</v>
       </c>
       <c r="C38">
-        <v>0.825</v>
+        <v>0.721</v>
       </c>
       <c r="D38">
-        <v>0.935</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.011</v>
+        <v>-0.0</v>
       </c>
       <c r="C39">
-        <v>1.039</v>
+        <v>0.919</v>
       </c>
       <c r="D39">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.007</v>
+        <v>-0.009</v>
       </c>
       <c r="C40">
-        <v>0.841</v>
+        <v>0.834</v>
       </c>
       <c r="D40">
-        <v>0.911</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="C41">
-        <v>1.068</v>
+        <v>1.156</v>
       </c>
       <c r="D41">
-        <v>0.932</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="C42">
-        <v>0.955</v>
+        <v>0.865</v>
       </c>
       <c r="D42">
-        <v>0.933</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="C43">
-        <v>0.855</v>
+        <v>0.731</v>
       </c>
       <c r="D43">
-        <v>0.959</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.012</v>
+        <v>-0.009</v>
       </c>
       <c r="C44">
-        <v>0.825</v>
+        <v>0.848</v>
       </c>
       <c r="D44">
-        <v>0.946</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>-0.01</v>
+        <v>-0.016</v>
       </c>
       <c r="C45">
-        <v>0.851</v>
+        <v>0.763</v>
       </c>
       <c r="D45">
-        <v>0.954</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.002</v>
+        <v>-0.009</v>
       </c>
       <c r="C46">
-        <v>0.951</v>
+        <v>0.823</v>
       </c>
       <c r="D46">
-        <v>0.93</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="C47">
-        <v>0.926</v>
+        <v>0.849</v>
       </c>
       <c r="D47">
-        <v>0.916</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="C48">
-        <v>0.879</v>
+        <v>0.794</v>
       </c>
       <c r="D48">
-        <v>0.92</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>-0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="C49">
-        <v>0.95</v>
+        <v>0.846</v>
       </c>
       <c r="D49">
-        <v>0.961</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.005</v>
+        <v>-0.011</v>
       </c>
       <c r="C50">
-        <v>0.991</v>
+        <v>0.802</v>
       </c>
       <c r="D50">
-        <v>0.936</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.0</v>
+        <v>-0.013</v>
       </c>
       <c r="C51">
-        <v>0.909</v>
+        <v>0.776</v>
       </c>
       <c r="D51">
-        <v>0.909</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.001</v>
+        <v>-0.023</v>
       </c>
       <c r="C52">
-        <v>0.967</v>
+        <v>0.669</v>
       </c>
       <c r="D52">
-        <v>0.978</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -2059,13 +2059,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.011</v>
+        <v>-0.015</v>
       </c>
       <c r="C2">
-        <v>0.817</v>
+        <v>0.77</v>
       </c>
       <c r="D2">
-        <v>-160.66</v>
+        <v>-220.9</v>
       </c>
       <c r="E2">
         <v>-0.002</v>
@@ -2076,16 +2076,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.003</v>
+        <v>-0.028</v>
       </c>
       <c r="C3">
-        <v>0.943</v>
+        <v>0.61</v>
       </c>
       <c r="D3">
-        <v>3812.05</v>
+        <v>2934.93</v>
       </c>
       <c r="E3">
-        <v>0.039</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2093,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.0</v>
+        <v>-0.014</v>
       </c>
       <c r="C4">
-        <v>0.941</v>
+        <v>0.772</v>
       </c>
       <c r="D4">
-        <v>511.73</v>
+        <v>1469.45</v>
       </c>
       <c r="E4">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2110,16 +2110,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="C5">
-        <v>0.848</v>
+        <v>0.927</v>
       </c>
       <c r="D5">
-        <v>1323.17</v>
+        <v>-1079.63</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2127,16 +2127,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>-0.023</v>
       </c>
       <c r="C6">
-        <v>0.894</v>
+        <v>0.666</v>
       </c>
       <c r="D6">
-        <v>2907.03</v>
+        <v>4637.6</v>
       </c>
       <c r="E6">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2144,13 +2144,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.006</v>
+        <v>-0.019</v>
       </c>
       <c r="C7">
-        <v>0.869</v>
+        <v>0.726</v>
       </c>
       <c r="D7">
-        <v>1222.76</v>
+        <v>1828.83</v>
       </c>
       <c r="E7">
         <v>0.013</v>
@@ -2161,16 +2161,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.008</v>
+        <v>-0.02</v>
       </c>
       <c r="C8">
-        <v>0.805</v>
+        <v>0.704</v>
       </c>
       <c r="D8">
-        <v>2503.28</v>
+        <v>3048.31</v>
       </c>
       <c r="E8">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2178,16 +2178,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.005</v>
+        <v>-0.024</v>
       </c>
       <c r="C9">
-        <v>0.859</v>
+        <v>0.671</v>
       </c>
       <c r="D9">
-        <v>2523.86</v>
+        <v>3136.94</v>
       </c>
       <c r="E9">
-        <v>0.028</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2195,16 +2195,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.006</v>
+        <v>-0.023</v>
       </c>
       <c r="C10">
-        <v>0.829</v>
+        <v>0.674</v>
       </c>
       <c r="D10">
-        <v>2110.4</v>
+        <v>3841.27</v>
       </c>
       <c r="E10">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2212,16 +2212,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.005</v>
+        <v>-0.016</v>
       </c>
       <c r="C11">
-        <v>0.894</v>
+        <v>0.761</v>
       </c>
       <c r="D11">
-        <v>96.81</v>
+        <v>-87.77</v>
       </c>
       <c r="E11">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2229,16 +2229,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.009</v>
+        <v>-0.018</v>
       </c>
       <c r="C12">
-        <v>0.825</v>
+        <v>0.728</v>
       </c>
       <c r="D12">
-        <v>961.29</v>
+        <v>1654.61</v>
       </c>
       <c r="E12">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2246,16 +2246,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.007</v>
+        <v>-0.025</v>
       </c>
       <c r="C13">
-        <v>0.836</v>
+        <v>0.648</v>
       </c>
       <c r="D13">
-        <v>1947.57</v>
+        <v>4726.16</v>
       </c>
       <c r="E13">
-        <v>0.022</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2263,16 +2263,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.004</v>
+        <v>-0.026</v>
       </c>
       <c r="C14">
-        <v>0.873</v>
+        <v>0.652</v>
       </c>
       <c r="D14">
-        <v>1083.1</v>
+        <v>2333.7</v>
       </c>
       <c r="E14">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2280,16 +2280,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.015</v>
+        <v>-0.024</v>
       </c>
       <c r="C15">
-        <v>0.764</v>
+        <v>0.668</v>
       </c>
       <c r="D15">
-        <v>249.07</v>
+        <v>1537.06</v>
       </c>
       <c r="E15">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2297,16 +2297,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="C16">
-        <v>0.809</v>
+        <v>0.704</v>
       </c>
       <c r="D16">
-        <v>767.26</v>
+        <v>1849.24</v>
       </c>
       <c r="E16">
-        <v>0.009</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2314,16 +2314,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="C17">
-        <v>0.802</v>
+        <v>0.698</v>
       </c>
       <c r="D17">
-        <v>610.17</v>
+        <v>1335.01</v>
       </c>
       <c r="E17">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2331,16 +2331,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.008</v>
+        <v>-0.019</v>
       </c>
       <c r="C18">
-        <v>0.825</v>
+        <v>0.716</v>
       </c>
       <c r="D18">
-        <v>1192.81</v>
+        <v>1333.43</v>
       </c>
       <c r="E18">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2348,16 +2348,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.011</v>
+        <v>-0.018</v>
       </c>
       <c r="C19">
-        <v>0.798</v>
+        <v>0.738</v>
       </c>
       <c r="D19">
-        <v>909.13</v>
+        <v>548.99</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2365,16 +2365,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.007</v>
+        <v>-0.015</v>
       </c>
       <c r="C20">
-        <v>0.865</v>
+        <v>0.771</v>
       </c>
       <c r="D20">
-        <v>306.74</v>
+        <v>-1447.69</v>
       </c>
       <c r="E20">
-        <v>0.003</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2382,16 +2382,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.005</v>
+        <v>-0.021</v>
       </c>
       <c r="C21">
-        <v>0.85</v>
+        <v>0.672</v>
       </c>
       <c r="D21">
-        <v>1359.49</v>
+        <v>4212.21</v>
       </c>
       <c r="E21">
-        <v>0.017</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2399,16 +2399,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.001</v>
+        <v>-0.015</v>
       </c>
       <c r="C22">
-        <v>0.896</v>
+        <v>0.783</v>
       </c>
       <c r="D22">
-        <v>1021.01</v>
+        <v>1386.06</v>
       </c>
       <c r="E22">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2416,13 +2416,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>-0.009</v>
+        <v>-0.021</v>
       </c>
       <c r="C23">
-        <v>0.814</v>
+        <v>0.696</v>
       </c>
       <c r="D23">
-        <v>2184.63</v>
+        <v>3285.11</v>
       </c>
       <c r="E23">
         <v>0.023</v>
@@ -2433,13 +2433,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.01</v>
+        <v>-0.017</v>
       </c>
       <c r="C24">
-        <v>0.819</v>
+        <v>0.741</v>
       </c>
       <c r="D24">
-        <v>1044.75</v>
+        <v>1598.04</v>
       </c>
       <c r="E24">
         <v>0.012</v>
@@ -2450,16 +2450,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.005</v>
+        <v>-0.02</v>
       </c>
       <c r="C25">
-        <v>0.846</v>
+        <v>0.703</v>
       </c>
       <c r="D25">
-        <v>2233.21</v>
+        <v>2756.05</v>
       </c>
       <c r="E25">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2467,16 +2467,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.005</v>
+        <v>-0.023</v>
       </c>
       <c r="C26">
-        <v>0.877</v>
+        <v>0.68</v>
       </c>
       <c r="D26">
-        <v>228.73</v>
+        <v>1666.45</v>
       </c>
       <c r="E26">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2484,16 +2484,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.004</v>
+        <v>-0.015</v>
       </c>
       <c r="C27">
-        <v>0.873</v>
+        <v>0.765</v>
       </c>
       <c r="D27">
-        <v>229.19</v>
+        <v>687.43</v>
       </c>
       <c r="E27">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2501,16 +2501,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.003</v>
+        <v>-0.02</v>
       </c>
       <c r="C28">
-        <v>0.903</v>
+        <v>0.721</v>
       </c>
       <c r="D28">
-        <v>157.9</v>
+        <v>1215.98</v>
       </c>
       <c r="E28">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2518,16 +2518,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.014</v>
+        <v>-0.017</v>
       </c>
       <c r="C29">
-        <v>0.766</v>
+        <v>0.735</v>
       </c>
       <c r="D29">
-        <v>2091.01</v>
+        <v>1115.3</v>
       </c>
       <c r="E29">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2535,16 +2535,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.008</v>
+        <v>-0.011</v>
       </c>
       <c r="C30">
-        <v>0.866</v>
+        <v>0.824</v>
       </c>
       <c r="D30">
-        <v>843.26</v>
+        <v>-570.73</v>
       </c>
       <c r="E30">
-        <v>0.008</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2552,16 +2552,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.006</v>
+        <v>-0.014</v>
       </c>
       <c r="C31">
-        <v>0.891</v>
+        <v>0.786</v>
       </c>
       <c r="D31">
-        <v>364.37</v>
+        <v>1641.55</v>
       </c>
       <c r="E31">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2569,16 +2569,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.007</v>
+        <v>-0.023</v>
       </c>
       <c r="C32">
-        <v>0.977</v>
+        <v>0.668</v>
       </c>
       <c r="D32">
-        <v>936.72</v>
+        <v>4469.05</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2586,16 +2586,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="C33">
-        <v>0.918</v>
+        <v>0.79</v>
       </c>
       <c r="D33">
-        <v>2013.68</v>
+        <v>440.85</v>
       </c>
       <c r="E33">
-        <v>0.023</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2603,16 +2603,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.0</v>
+        <v>-0.027</v>
       </c>
       <c r="C34">
-        <v>0.883</v>
+        <v>0.624</v>
       </c>
       <c r="D34">
-        <v>1810.07</v>
+        <v>3447.35</v>
       </c>
       <c r="E34">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2620,16 +2620,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.012</v>
+        <v>-0.023</v>
       </c>
       <c r="C35">
-        <v>0.773</v>
+        <v>0.672</v>
       </c>
       <c r="D35">
-        <v>1777.15</v>
+        <v>3341.45</v>
       </c>
       <c r="E35">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2637,16 +2637,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.003</v>
+        <v>-0.014</v>
       </c>
       <c r="C36">
-        <v>0.92</v>
+        <v>0.778</v>
       </c>
       <c r="D36">
-        <v>-192.98</v>
+        <v>-2973.45</v>
       </c>
       <c r="E36">
-        <v>-0.002</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2654,16 +2654,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>-0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="C37">
-        <v>0.792</v>
+        <v>0.7</v>
       </c>
       <c r="D37">
-        <v>1517.71</v>
+        <v>2361.86</v>
       </c>
       <c r="E37">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2671,16 +2671,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.002</v>
+        <v>-0.011</v>
       </c>
       <c r="C38">
-        <v>0.934</v>
+        <v>0.826</v>
       </c>
       <c r="D38">
-        <v>-1398.43</v>
+        <v>-2467.66</v>
       </c>
       <c r="E38">
-        <v>-0.015</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2688,16 +2688,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.001</v>
+        <v>-0.018</v>
       </c>
       <c r="C39">
-        <v>0.889</v>
+        <v>0.724</v>
       </c>
       <c r="D39">
-        <v>1416.97</v>
+        <v>2708.86</v>
       </c>
       <c r="E39">
-        <v>0.017</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2705,16 +2705,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="C40">
-        <v>0.769</v>
+        <v>0.761</v>
       </c>
       <c r="D40">
-        <v>962.12</v>
+        <v>1225.59</v>
       </c>
       <c r="E40">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2722,16 +2722,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.009</v>
+        <v>0.015</v>
       </c>
       <c r="C41">
-        <v>0.804</v>
+        <v>1.082</v>
       </c>
       <c r="D41">
-        <v>2810.25</v>
+        <v>482.2</v>
       </c>
       <c r="E41">
-        <v>0.032</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2739,16 +2739,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>-0.009</v>
+        <v>-0.024</v>
       </c>
       <c r="C42">
-        <v>0.823</v>
+        <v>0.669</v>
       </c>
       <c r="D42">
-        <v>1555.12</v>
+        <v>3829.16</v>
       </c>
       <c r="E42">
-        <v>0.017</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2756,16 +2756,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="C43">
-        <v>0.933</v>
+        <v>0.865</v>
       </c>
       <c r="D43">
-        <v>-1041.26</v>
+        <v>-3022.26</v>
       </c>
       <c r="E43">
-        <v>-0.011</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2773,16 +2773,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.008</v>
+        <v>-0.019</v>
       </c>
       <c r="C44">
-        <v>0.866</v>
+        <v>0.742</v>
       </c>
       <c r="D44">
-        <v>-368.18</v>
+        <v>1355.35</v>
       </c>
       <c r="E44">
-        <v>-0.004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2790,16 +2790,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>-0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="C45">
-        <v>0.848</v>
+        <v>0.79</v>
       </c>
       <c r="D45">
-        <v>69.57</v>
+        <v>-884.67</v>
       </c>
       <c r="E45">
-        <v>0.001</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2807,16 +2807,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="C46">
-        <v>0.812</v>
+        <v>0.704</v>
       </c>
       <c r="D46">
-        <v>1602.09</v>
+        <v>2043.15</v>
       </c>
       <c r="E46">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2824,16 +2824,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.011</v>
+        <v>-0.019</v>
       </c>
       <c r="C47">
-        <v>0.787</v>
+        <v>0.707</v>
       </c>
       <c r="D47">
-        <v>1944.35</v>
+        <v>2669.72</v>
       </c>
       <c r="E47">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2841,16 +2841,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.008</v>
+        <v>-0.021</v>
       </c>
       <c r="C48">
-        <v>0.83</v>
+        <v>0.701</v>
       </c>
       <c r="D48">
-        <v>659.3</v>
+        <v>1800.45</v>
       </c>
       <c r="E48">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2858,16 +2858,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>-0.009</v>
+        <v>-0.016</v>
       </c>
       <c r="C49">
-        <v>0.85</v>
+        <v>0.762</v>
       </c>
       <c r="D49">
-        <v>1143.66</v>
+        <v>1355.12</v>
       </c>
       <c r="E49">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2875,16 +2875,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.001</v>
+        <v>-0.022</v>
       </c>
       <c r="C50">
-        <v>0.904</v>
+        <v>0.684</v>
       </c>
       <c r="D50">
-        <v>1152.41</v>
+        <v>2800.54</v>
       </c>
       <c r="E50">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2892,16 +2892,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.009</v>
+        <v>-0.03</v>
       </c>
       <c r="C51">
-        <v>0.81</v>
+        <v>0.62</v>
       </c>
       <c r="D51">
-        <v>1208.17</v>
+        <v>3098.61</v>
       </c>
       <c r="E51">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2909,16 +2909,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.001</v>
+        <v>-0.018</v>
       </c>
       <c r="C52">
-        <v>0.967</v>
+        <v>0.723</v>
       </c>
       <c r="D52">
-        <v>67.21</v>
+        <v>-2003.61</v>
       </c>
       <c r="E52">
-        <v>0.001</v>
+        <v>-0.013</v>
       </c>
     </row>
   </sheetData>
